--- a/Circuit_Motor_Design_Altium_V1/Project Outputs for PCB_Project/PCB_Projec_New_value_.xlsx
+++ b/Circuit_Motor_Design_Altium_V1/Project Outputs for PCB_Project/PCB_Projec_New_value_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Mobile_Robot_Campact_Motor_Driver\Circuit_Motor_Design_Altium_V1\Project Outputs for PCB_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D17F8-928D-4C0C-8980-1C183CDC2902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2FB3F7-56FE-4270-847D-151CDFA0B956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27D77812-BD73-4A03-84E6-4D1AFC0550C0}"/>
+    <workbookView xWindow="690" yWindow="735" windowWidth="24645" windowHeight="13455" xr2:uid="{27D77812-BD73-4A03-84E6-4D1AFC0550C0}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_Projec_New_value_" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,9 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="A1:C54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1301,7 +1303,11 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.30555555555555602" right="0.30555555555555602" top="0.60555555555555596" bottom="0.30555555555555602" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;16Mobile Robot Driver&amp;C&amp;"-,Bold"&amp;16ACRRL&amp;R&amp;"-,Bold"&amp;16Mohammad Sabouri</oddHeader>
+    <oddFooter>&amp;C&amp;P of 2</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>